--- a/medicine/Enfance/Thierry_Aprile/Thierry_Aprile.xlsx
+++ b/medicine/Enfance/Thierry_Aprile/Thierry_Aprile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thierry Aprile, né le 14 janvier 1961 à Arras et mort le 25 mars 2013 à Paris, est un écrivain de livres pour enfants, historien et professeur d'histoire français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est écrivain-historien pour enfants pendant plus de 25 ans.
 Atteint d'un cancer, il meurt le 25 mars 2013. Il est incinéré au crématorium du cimetière du Père-Lachaise à Paris et les cendres sont remises à sa famille.
-Il fut membre du Comité de vigilance face aux usages publics de l'histoire[1].
+Il fut membre du Comité de vigilance face aux usages publics de l'histoire.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thierry Aprile et François Place, Sur les traces d'Aladdin, Gallimard Jeunesse, 2001.
 Thierry Aprile et François Place, Sur les traces des pirates, Gallimard Jeunesse, 2003.
